--- a/src/test/java/resources/test.xlsx
+++ b/src/test/java/resources/test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8796"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="573">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1801,6 +1802,19 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D1048576" totalsRowShown="0">
   <autoFilter ref="A1:D1048576"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Ülke (İngilizce)"/>
+    <tableColumn id="2" name="Başkent (İngilizce)"/>
+    <tableColumn id="3" name="Ülke (Türkçe)"/>
+    <tableColumn id="4" name="Başkent (Türkçe)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tablo13" displayName="Tablo13" ref="A1:D1048440" totalsRowShown="0">
+  <autoFilter ref="A1:D1048440"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Ülke (İngilizce)"/>
     <tableColumn id="2" name="Başkent (İngilizce)"/>
@@ -2076,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4769,4 +4783,799 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/test/java/resources/test.xlsx
+++ b/src/test/java/resources/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f-kur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C0FFA1-F6AF-42D8-8F41-98CBE33AD287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8796" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1744,12 +1745,28 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>ilk sütun key, diğerleri value olsun</t>
+  </si>
+  <si>
+    <t>key unique olmalıdır.</t>
+  </si>
+  <si>
+    <t>"Belarus","Minsk,Belarus,Minsk"</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>1000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1800,26 +1817,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tablo1" displayName="Tablo1" ref="A1:D1048576" totalsRowShown="0">
+  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Ülke (İngilizce)"/>
-    <tableColumn id="2" name="Başkent (İngilizce)"/>
-    <tableColumn id="3" name="Ülke (Türkçe)"/>
-    <tableColumn id="4" name="Başkent (Türkçe)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tablo13" displayName="Tablo13" ref="A1:D1048440" totalsRowShown="0">
-  <autoFilter ref="A1:D1048440"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Ülke (İngilizce)"/>
-    <tableColumn id="2" name="Başkent (İngilizce)"/>
-    <tableColumn id="3" name="Ülke (Türkçe)"/>
-    <tableColumn id="4" name="Başkent (Türkçe)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ülke (İngilizce)"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Başkent (İngilizce)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ülke (Türkçe)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Başkent (Türkçe)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2087,22 +2091,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2115,8 +2119,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2143,8 +2150,14 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2158,7 +2171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2171,8 +2184,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2186,7 +2202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2200,7 +2216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2214,7 +2230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2228,7 +2244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2258,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2256,7 +2272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2270,7 +2286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2284,7 +2300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2298,7 +2314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2312,7 +2328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2326,7 +2342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2339,8 +2355,11 @@
       <c r="D17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2354,7 +2373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -2368,7 +2387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -2382,7 +2401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2396,7 +2415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2410,7 +2429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2424,7 +2443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -2438,7 +2457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2452,7 +2471,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -2466,7 +2485,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -2480,7 +2499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -2494,7 +2513,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -2522,7 +2541,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2536,7 +2555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2550,7 +2569,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -2564,7 +2583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -2578,7 +2597,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -2592,7 +2611,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -2606,7 +2625,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -2620,7 +2639,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2634,7 +2653,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -2648,7 +2667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -2662,7 +2681,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -2676,7 +2695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -2690,7 +2709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -2704,7 +2723,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -2718,7 +2737,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -2732,7 +2751,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -2746,7 +2765,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -2760,7 +2779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -2774,7 +2793,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>150</v>
       </c>
@@ -2788,7 +2807,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -2802,7 +2821,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -2816,7 +2835,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>159</v>
       </c>
@@ -2830,7 +2849,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -2844,7 +2863,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -2858,7 +2877,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -2872,7 +2891,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -2886,7 +2905,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -2900,7 +2919,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -2914,7 +2933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -2928,7 +2947,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -2942,7 +2961,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -2956,7 +2975,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>189</v>
       </c>
@@ -2970,7 +2989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -2984,7 +3003,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -2998,7 +3017,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3012,7 +3031,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>201</v>
       </c>
@@ -3026,7 +3045,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -3040,7 +3059,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>208</v>
       </c>
@@ -3054,7 +3073,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>210</v>
       </c>
@@ -3068,7 +3087,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>212</v>
       </c>
@@ -3082,7 +3101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3096,7 +3115,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -3110,7 +3129,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -3124,7 +3143,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -3138,7 +3157,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>224</v>
       </c>
@@ -3152,7 +3171,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>228</v>
       </c>
@@ -3166,7 +3185,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -3180,7 +3199,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>234</v>
       </c>
@@ -3194,7 +3213,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -3208,7 +3227,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -3222,7 +3241,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>246</v>
       </c>
@@ -3236,7 +3255,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>249</v>
       </c>
@@ -3250,7 +3269,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>252</v>
       </c>
@@ -3264,7 +3283,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>256</v>
       </c>
@@ -3278,7 +3297,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>259</v>
       </c>
@@ -3292,7 +3311,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -3306,7 +3325,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -3320,7 +3339,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>268</v>
       </c>
@@ -3334,7 +3353,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>270</v>
       </c>
@@ -3348,7 +3367,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -3362,7 +3381,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -3376,7 +3395,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>279</v>
       </c>
@@ -3390,7 +3409,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>282</v>
       </c>
@@ -3404,7 +3423,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -3418,7 +3437,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>288</v>
       </c>
@@ -3432,7 +3451,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>291</v>
       </c>
@@ -3446,7 +3465,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -3460,7 +3479,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>298</v>
       </c>
@@ -3474,7 +3493,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>300</v>
       </c>
@@ -3488,7 +3507,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>303</v>
       </c>
@@ -3502,7 +3521,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>305</v>
       </c>
@@ -3516,7 +3535,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>309</v>
       </c>
@@ -3530,7 +3549,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>312</v>
       </c>
@@ -3544,7 +3563,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>315</v>
       </c>
@@ -3558,7 +3577,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>318</v>
       </c>
@@ -3572,7 +3591,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>321</v>
       </c>
@@ -3586,7 +3605,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>323</v>
       </c>
@@ -3600,7 +3619,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>325</v>
       </c>
@@ -3614,7 +3633,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>328</v>
       </c>
@@ -3628,7 +3647,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -3642,7 +3661,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>335</v>
       </c>
@@ -3656,7 +3675,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>338</v>
       </c>
@@ -3670,7 +3689,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>341</v>
       </c>
@@ -3684,7 +3703,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>344</v>
       </c>
@@ -3698,7 +3717,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>346</v>
       </c>
@@ -3712,7 +3731,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>350</v>
       </c>
@@ -3726,7 +3745,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>353</v>
       </c>
@@ -3740,7 +3759,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>356</v>
       </c>
@@ -3754,7 +3773,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>359</v>
       </c>
@@ -3768,7 +3787,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>362</v>
       </c>
@@ -3782,7 +3801,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>365</v>
       </c>
@@ -3796,7 +3815,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>368</v>
       </c>
@@ -3810,7 +3829,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>371</v>
       </c>
@@ -3824,7 +3843,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>374</v>
       </c>
@@ -3838,7 +3857,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>377</v>
       </c>
@@ -3852,7 +3871,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>380</v>
       </c>
@@ -3866,7 +3885,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>383</v>
       </c>
@@ -3880,7 +3899,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>386</v>
       </c>
@@ -3894,7 +3913,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>389</v>
       </c>
@@ -3908,7 +3927,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>393</v>
       </c>
@@ -3922,7 +3941,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>396</v>
       </c>
@@ -3936,7 +3955,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>398</v>
       </c>
@@ -3950,7 +3969,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>400</v>
       </c>
@@ -3964,7 +3983,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>403</v>
       </c>
@@ -3978,7 +3997,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>405</v>
       </c>
@@ -3992,7 +4011,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>407</v>
       </c>
@@ -4006,7 +4025,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>410</v>
       </c>
@@ -4020,7 +4039,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>414</v>
       </c>
@@ -4034,7 +4053,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>418</v>
       </c>
@@ -4048,7 +4067,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>421</v>
       </c>
@@ -4062,7 +4081,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>425</v>
       </c>
@@ -4076,7 +4095,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>429</v>
       </c>
@@ -4090,7 +4109,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>432</v>
       </c>
@@ -4104,7 +4123,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>435</v>
       </c>
@@ -4118,7 +4137,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>437</v>
       </c>
@@ -4132,7 +4151,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>440</v>
       </c>
@@ -4146,7 +4165,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -4160,7 +4179,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>443</v>
       </c>
@@ -4174,7 +4193,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>446</v>
       </c>
@@ -4188,7 +4207,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -4202,7 +4221,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>452</v>
       </c>
@@ -4216,7 +4235,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>456</v>
       </c>
@@ -4230,7 +4249,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>459</v>
       </c>
@@ -4244,7 +4263,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>461</v>
       </c>
@@ -4258,7 +4277,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>463</v>
       </c>
@@ -4272,7 +4291,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>466</v>
       </c>
@@ -4286,7 +4305,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>469</v>
       </c>
@@ -4300,7 +4319,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>472</v>
       </c>
@@ -4314,7 +4333,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -4328,7 +4347,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>479</v>
       </c>
@@ -4342,7 +4361,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>482</v>
       </c>
@@ -4356,7 +4375,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>484</v>
       </c>
@@ -4370,7 +4389,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>487</v>
       </c>
@@ -4384,7 +4403,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>490</v>
       </c>
@@ -4398,7 +4417,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>492</v>
       </c>
@@ -4412,7 +4431,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>496</v>
       </c>
@@ -4426,7 +4445,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>499</v>
       </c>
@@ -4440,7 +4459,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>503</v>
       </c>
@@ -4454,7 +4473,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>507</v>
       </c>
@@ -4468,7 +4487,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>511</v>
       </c>
@@ -4482,7 +4501,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>514</v>
       </c>
@@ -4496,7 +4515,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>516</v>
       </c>
@@ -4510,7 +4529,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>519</v>
       </c>
@@ -4524,7 +4543,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>522</v>
       </c>
@@ -4538,7 +4557,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>525</v>
       </c>
@@ -4552,7 +4571,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>528</v>
       </c>
@@ -4566,7 +4585,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>532</v>
       </c>
@@ -4580,7 +4599,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>534</v>
       </c>
@@ -4594,7 +4613,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>536</v>
       </c>
@@ -4608,7 +4627,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>539</v>
       </c>
@@ -4622,7 +4641,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>543</v>
       </c>
@@ -4636,7 +4655,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>547</v>
       </c>
@@ -4650,7 +4669,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>550</v>
       </c>
@@ -4664,7 +4683,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>552</v>
       </c>
@@ -4678,7 +4697,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>556</v>
       </c>
@@ -4692,7 +4711,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>558</v>
       </c>
@@ -4706,7 +4725,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>560</v>
       </c>
@@ -4720,7 +4739,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>562</v>
       </c>
@@ -4734,7 +4753,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>564</v>
       </c>
@@ -4748,7 +4767,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>567</v>
       </c>
@@ -4762,7 +4781,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>570</v>
       </c>
@@ -4786,796 +4805,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>